--- a/4.Analysis/Data/raw/day2/phase_006/subj_day2_phase_006.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_006/subj_day2_phase_006.xlsx
@@ -2762,7 +2762,7 @@
         <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="Y20" t="s">
         <v>48</v>
@@ -2934,7 +2934,7 @@
         <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="Y22" t="s">
         <v>48</v>
